--- a/00-CONSTANTS/lowcomplexity_const_KHv1.xlsx
+++ b/00-CONSTANTS/lowcomplexity_const_KHv1.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/keharris/_K/_SCRIPTS/_CODE-GIT-MGD/dtt-pricing-tools-populator/00-CONSTANTS/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/keharris/_K/_SCRIPTS/_DEV/dtt-pricing-tools-populator/00-CONSTANTS/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{345E3497-4820-2949-9836-70A13B8D7F05}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70021E05-9912-8644-9FF8-853BB6C28B01}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20740" yWindow="-28080" windowWidth="27240" windowHeight="18440" activeTab="1" xr2:uid="{7A059E25-DFCF-6342-8148-88951A9BA5D0}"/>
+    <workbookView xWindow="0" yWindow="880" windowWidth="36000" windowHeight="21460" xr2:uid="{7A059E25-DFCF-6342-8148-88951A9BA5D0}"/>
   </bookViews>
   <sheets>
     <sheet name="Pricing Setup" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="251" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="87">
   <si>
     <t>C.</t>
   </si>
@@ -475,6 +475,9 @@
   <si>
     <t>Graduate</t>
   </si>
+  <si>
+    <t>JO-TBAAAAAAAAAAAAAA</t>
+  </si>
 </sst>
 </file>
 
@@ -483,7 +486,7 @@
   <numFmts count="3">
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="_-&quot;$&quot;* #,##0_-;\-&quot;$&quot;* #,##0_-;_-&quot;$&quot;* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="168" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="165" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
   <fonts count="15" x14ac:knownFonts="1">
     <font>
@@ -828,12 +831,6 @@
     <xf numFmtId="49" fontId="7" fillId="3" borderId="3" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="2" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="3" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="10" fillId="6" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -869,7 +866,7 @@
       <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="168" fontId="14" fillId="8" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="14" fillId="8" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -887,12 +884,6 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="9" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="5" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
       <protection locked="0"/>
@@ -904,6 +895,18 @@
     <xf numFmtId="0" fontId="14" fillId="12" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
       <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="2" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="3" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="5" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -1329,8 +1332,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{04C189AA-BBB8-4041-8D68-58AC39ECD958}">
   <dimension ref="B2:D19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1344,10 +1347,10 @@
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="17" t="s">
+      <c r="C2" s="36" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="18"/>
+      <c r="D2" s="37"/>
     </row>
     <row r="3" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B3" s="2" t="s">
@@ -1356,7 +1359,9 @@
       <c r="C3" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="4"/>
+      <c r="D3" s="4" t="s">
+        <v>86</v>
+      </c>
     </row>
     <row r="4" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B4" s="5" t="s">
@@ -1409,10 +1414,10 @@
       <c r="B9" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C9" s="17" t="s">
+      <c r="C9" s="36" t="s">
         <v>13</v>
       </c>
-      <c r="D9" s="18"/>
+      <c r="D9" s="37"/>
     </row>
     <row r="10" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B10" s="2" t="s">
@@ -1502,10 +1507,10 @@
       <c r="B18" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C18" s="17" t="s">
+      <c r="C18" s="36" t="s">
         <v>27</v>
       </c>
-      <c r="D18" s="18"/>
+      <c r="D18" s="37"/>
     </row>
     <row r="19" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B19" s="5" t="s">
@@ -1563,7 +1568,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2BFDF917-13A2-824E-BE04-3245EAAAABC1}">
   <dimension ref="B3:Q34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="N28" sqref="N28"/>
     </sheetView>
   </sheetViews>
@@ -1579,1151 +1584,1151 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B3" s="35" t="s">
+      <c r="B3" s="38" t="s">
         <v>32</v>
       </c>
-      <c r="C3" s="36"/>
-      <c r="D3" s="36"/>
-      <c r="E3" s="36"/>
-      <c r="F3" s="36"/>
-      <c r="G3" s="36"/>
-      <c r="H3" s="36"/>
-      <c r="I3" s="36"/>
-      <c r="J3" s="36"/>
-      <c r="K3" s="36"/>
-      <c r="L3" s="36"/>
-      <c r="M3" s="36"/>
-      <c r="N3" s="36"/>
-      <c r="O3" s="36"/>
-      <c r="P3" s="36"/>
-      <c r="Q3" s="36"/>
+      <c r="C3" s="39"/>
+      <c r="D3" s="39"/>
+      <c r="E3" s="39"/>
+      <c r="F3" s="39"/>
+      <c r="G3" s="39"/>
+      <c r="H3" s="39"/>
+      <c r="I3" s="39"/>
+      <c r="J3" s="39"/>
+      <c r="K3" s="39"/>
+      <c r="L3" s="39"/>
+      <c r="M3" s="39"/>
+      <c r="N3" s="39"/>
+      <c r="O3" s="39"/>
+      <c r="P3" s="39"/>
+      <c r="Q3" s="39"/>
     </row>
     <row r="4" spans="2:17" ht="60" x14ac:dyDescent="0.2">
-      <c r="B4" s="19" t="s">
+      <c r="B4" s="17" t="s">
         <v>33</v>
       </c>
-      <c r="C4" s="20" t="s">
+      <c r="C4" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="D4" s="20" t="s">
+      <c r="D4" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="E4" s="20" t="s">
+      <c r="E4" s="18" t="s">
         <v>36</v>
       </c>
-      <c r="F4" s="21" t="s">
+      <c r="F4" s="19" t="s">
         <v>37</v>
       </c>
-      <c r="G4" s="21" t="s">
+      <c r="G4" s="19" t="s">
         <v>38</v>
       </c>
-      <c r="H4" s="20" t="s">
+      <c r="H4" s="18" t="s">
         <v>39</v>
       </c>
-      <c r="I4" s="21" t="s">
+      <c r="I4" s="19" t="s">
         <v>40</v>
       </c>
-      <c r="J4" s="21" t="s">
+      <c r="J4" s="19" t="s">
         <v>41</v>
       </c>
-      <c r="K4" s="21" t="s">
+      <c r="K4" s="19" t="s">
         <v>42</v>
       </c>
-      <c r="L4" s="21" t="s">
+      <c r="L4" s="19" t="s">
         <v>43</v>
       </c>
-      <c r="M4" s="22" t="s">
+      <c r="M4" s="20" t="s">
         <v>44</v>
       </c>
-      <c r="N4" s="21" t="s">
+      <c r="N4" s="19" t="s">
         <v>45</v>
       </c>
-      <c r="O4" s="21" t="s">
+      <c r="O4" s="19" t="s">
         <v>46</v>
       </c>
-      <c r="P4" s="22" t="s">
+      <c r="P4" s="20" t="s">
         <v>47</v>
       </c>
-      <c r="Q4" s="23" t="s">
+      <c r="Q4" s="21" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="5" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B5" s="24">
+      <c r="B5" s="22">
         <v>1</v>
       </c>
-      <c r="C5" s="25" t="s">
+      <c r="C5" s="23" t="s">
         <v>49</v>
       </c>
-      <c r="D5" s="25" t="s">
+      <c r="D5" s="23" t="s">
         <v>50</v>
       </c>
-      <c r="E5" s="26" t="s">
+      <c r="E5" s="24" t="s">
         <v>51</v>
       </c>
-      <c r="F5" s="25" t="s">
+      <c r="F5" s="23" t="s">
         <v>52</v>
       </c>
-      <c r="G5" s="27" t="s">
+      <c r="G5" s="25" t="s">
         <v>53</v>
       </c>
-      <c r="H5" s="25" t="s">
+      <c r="H5" s="23" t="s">
         <v>54</v>
       </c>
-      <c r="I5" s="26" t="s">
+      <c r="I5" s="24" t="s">
         <v>55</v>
       </c>
-      <c r="J5" s="26" t="s">
+      <c r="J5" s="24" t="s">
         <v>56</v>
       </c>
-      <c r="K5" s="26" t="s">
+      <c r="K5" s="24" t="s">
         <v>57</v>
       </c>
-      <c r="L5" s="26" t="s">
+      <c r="L5" s="24" t="s">
         <v>58</v>
       </c>
-      <c r="M5" s="28" t="s">
+      <c r="M5" s="26" t="s">
         <v>59</v>
       </c>
-      <c r="N5" s="29"/>
-      <c r="O5" s="30" t="s">
+      <c r="N5" s="27"/>
+      <c r="O5" s="28" t="s">
         <v>60</v>
       </c>
-      <c r="P5" s="28">
+      <c r="P5" s="26">
         <v>683</v>
       </c>
-      <c r="Q5" s="28">
+      <c r="Q5" s="26">
         <v>704</v>
       </c>
     </row>
     <row r="6" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B6" s="24">
+      <c r="B6" s="22">
         <v>2</v>
       </c>
-      <c r="C6" s="25" t="s">
+      <c r="C6" s="23" t="s">
         <v>49</v>
       </c>
-      <c r="D6" s="25" t="s">
+      <c r="D6" s="23" t="s">
         <v>50</v>
       </c>
-      <c r="E6" s="26" t="s">
+      <c r="E6" s="24" t="s">
         <v>61</v>
       </c>
-      <c r="F6" s="26"/>
-      <c r="G6" s="27" t="s">
+      <c r="F6" s="24"/>
+      <c r="G6" s="25" t="s">
         <v>53</v>
       </c>
-      <c r="H6" s="25" t="s">
+      <c r="H6" s="23" t="s">
         <v>54</v>
       </c>
-      <c r="I6" s="26" t="s">
+      <c r="I6" s="24" t="s">
         <v>62</v>
       </c>
-      <c r="J6" s="26"/>
-      <c r="K6" s="26" t="s">
+      <c r="J6" s="24"/>
+      <c r="K6" s="24" t="s">
         <v>57</v>
       </c>
-      <c r="L6" s="26" t="s">
+      <c r="L6" s="24" t="s">
         <v>58</v>
       </c>
-      <c r="M6" s="28" t="s">
+      <c r="M6" s="26" t="s">
         <v>59</v>
       </c>
-      <c r="N6" s="29"/>
-      <c r="O6" s="30" t="s">
+      <c r="N6" s="27"/>
+      <c r="O6" s="28" t="s">
         <v>60</v>
       </c>
-      <c r="P6" s="28" t="s">
+      <c r="P6" s="26" t="s">
         <v>63</v>
       </c>
-      <c r="Q6" s="28" t="s">
+      <c r="Q6" s="26" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="7" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B7" s="24">
+      <c r="B7" s="22">
         <v>3</v>
       </c>
-      <c r="C7" s="31" t="s">
+      <c r="C7" s="29" t="s">
         <v>49</v>
       </c>
-      <c r="D7" s="31" t="s">
+      <c r="D7" s="29" t="s">
         <v>50</v>
       </c>
-      <c r="E7" s="32" t="s">
+      <c r="E7" s="30" t="s">
         <v>61</v>
       </c>
-      <c r="F7" s="31" t="s">
+      <c r="F7" s="29" t="s">
         <v>65</v>
       </c>
-      <c r="G7" s="27" t="s">
+      <c r="G7" s="25" t="s">
         <v>66</v>
       </c>
-      <c r="H7" s="31"/>
-      <c r="I7" s="32"/>
-      <c r="J7" s="26" t="s">
+      <c r="H7" s="29"/>
+      <c r="I7" s="30"/>
+      <c r="J7" s="24" t="s">
         <v>67</v>
       </c>
-      <c r="K7" s="26" t="s">
+      <c r="K7" s="24" t="s">
         <v>57</v>
       </c>
-      <c r="L7" s="26" t="s">
+      <c r="L7" s="24" t="s">
         <v>58</v>
       </c>
-      <c r="M7" s="28">
+      <c r="M7" s="26">
         <v>7500</v>
       </c>
-      <c r="N7" s="29"/>
-      <c r="O7" s="30" t="s">
+      <c r="N7" s="27"/>
+      <c r="O7" s="28" t="s">
         <v>60</v>
       </c>
-      <c r="P7" s="28">
+      <c r="P7" s="26">
         <v>2768</v>
       </c>
-      <c r="Q7" s="28">
+      <c r="Q7" s="26">
         <v>2856</v>
       </c>
     </row>
     <row r="8" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B8" s="24">
+      <c r="B8" s="22">
         <v>4</v>
       </c>
-      <c r="C8" s="31"/>
-      <c r="D8" s="31"/>
-      <c r="E8" s="32"/>
-      <c r="F8" s="31"/>
-      <c r="G8" s="27" t="s">
+      <c r="C8" s="29"/>
+      <c r="D8" s="29"/>
+      <c r="E8" s="30"/>
+      <c r="F8" s="29"/>
+      <c r="G8" s="25" t="s">
         <v>66</v>
       </c>
-      <c r="H8" s="33"/>
-      <c r="I8" s="27"/>
-      <c r="J8" s="26"/>
-      <c r="K8" s="26"/>
-      <c r="L8" s="26"/>
-      <c r="M8" s="28" t="s">
+      <c r="H8" s="31"/>
+      <c r="I8" s="25"/>
+      <c r="J8" s="24"/>
+      <c r="K8" s="24"/>
+      <c r="L8" s="24"/>
+      <c r="M8" s="26" t="s">
         <v>59</v>
       </c>
-      <c r="N8" s="29"/>
-      <c r="O8" s="30" t="s">
+      <c r="N8" s="27"/>
+      <c r="O8" s="28" t="s">
         <v>60</v>
       </c>
-      <c r="P8" s="28" t="s">
+      <c r="P8" s="26" t="s">
         <v>63</v>
       </c>
-      <c r="Q8" s="28" t="s">
+      <c r="Q8" s="26" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="9" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B9" s="24">
+      <c r="B9" s="22">
         <v>5</v>
       </c>
-      <c r="C9" s="31"/>
-      <c r="D9" s="31"/>
-      <c r="E9" s="32"/>
-      <c r="F9" s="31"/>
-      <c r="G9" s="27" t="s">
+      <c r="C9" s="29"/>
+      <c r="D9" s="29"/>
+      <c r="E9" s="30"/>
+      <c r="F9" s="29"/>
+      <c r="G9" s="25" t="s">
         <v>66</v>
       </c>
-      <c r="H9" s="31"/>
-      <c r="I9" s="32"/>
-      <c r="J9" s="26"/>
-      <c r="K9" s="26"/>
-      <c r="L9" s="26"/>
-      <c r="M9" s="28" t="s">
+      <c r="H9" s="29"/>
+      <c r="I9" s="30"/>
+      <c r="J9" s="24"/>
+      <c r="K9" s="24"/>
+      <c r="L9" s="24"/>
+      <c r="M9" s="26" t="s">
         <v>59</v>
       </c>
-      <c r="N9" s="29"/>
-      <c r="O9" s="30" t="s">
+      <c r="N9" s="27"/>
+      <c r="O9" s="28" t="s">
         <v>60</v>
       </c>
-      <c r="P9" s="28" t="s">
+      <c r="P9" s="26" t="s">
         <v>63</v>
       </c>
-      <c r="Q9" s="28" t="s">
+      <c r="Q9" s="26" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="10" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B10" s="24">
+      <c r="B10" s="22">
         <v>6</v>
       </c>
-      <c r="C10" s="31"/>
-      <c r="D10" s="31"/>
-      <c r="E10" s="32"/>
-      <c r="F10" s="31"/>
-      <c r="G10" s="27" t="s">
+      <c r="C10" s="29"/>
+      <c r="D10" s="29"/>
+      <c r="E10" s="30"/>
+      <c r="F10" s="29"/>
+      <c r="G10" s="25" t="s">
         <v>66</v>
       </c>
-      <c r="H10" s="31"/>
-      <c r="I10" s="32"/>
-      <c r="J10" s="26"/>
-      <c r="K10" s="26"/>
-      <c r="L10" s="26"/>
-      <c r="M10" s="28" t="s">
+      <c r="H10" s="29"/>
+      <c r="I10" s="30"/>
+      <c r="J10" s="24"/>
+      <c r="K10" s="24"/>
+      <c r="L10" s="24"/>
+      <c r="M10" s="26" t="s">
         <v>59</v>
       </c>
-      <c r="N10" s="29"/>
-      <c r="O10" s="30" t="s">
+      <c r="N10" s="27"/>
+      <c r="O10" s="28" t="s">
         <v>60</v>
       </c>
-      <c r="P10" s="28" t="s">
+      <c r="P10" s="26" t="s">
         <v>63</v>
       </c>
-      <c r="Q10" s="28" t="s">
+      <c r="Q10" s="26" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="11" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B11" s="24">
+      <c r="B11" s="22">
         <v>7</v>
       </c>
-      <c r="C11" s="31"/>
-      <c r="D11" s="31"/>
-      <c r="E11" s="32"/>
-      <c r="F11" s="31"/>
-      <c r="G11" s="27" t="s">
+      <c r="C11" s="29"/>
+      <c r="D11" s="29"/>
+      <c r="E11" s="30"/>
+      <c r="F11" s="29"/>
+      <c r="G11" s="25" t="s">
         <v>66</v>
       </c>
-      <c r="H11" s="31"/>
-      <c r="I11" s="32"/>
-      <c r="J11" s="26"/>
-      <c r="K11" s="26"/>
-      <c r="L11" s="26"/>
-      <c r="M11" s="28" t="s">
+      <c r="H11" s="29"/>
+      <c r="I11" s="30"/>
+      <c r="J11" s="24"/>
+      <c r="K11" s="24"/>
+      <c r="L11" s="24"/>
+      <c r="M11" s="26" t="s">
         <v>59</v>
       </c>
-      <c r="N11" s="29"/>
-      <c r="O11" s="30" t="s">
+      <c r="N11" s="27"/>
+      <c r="O11" s="28" t="s">
         <v>60</v>
       </c>
-      <c r="P11" s="28" t="s">
+      <c r="P11" s="26" t="s">
         <v>63</v>
       </c>
-      <c r="Q11" s="28" t="s">
+      <c r="Q11" s="26" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="12" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B12" s="24">
+      <c r="B12" s="22">
         <v>8</v>
       </c>
-      <c r="C12" s="31"/>
-      <c r="D12" s="31"/>
-      <c r="E12" s="32"/>
-      <c r="F12" s="31"/>
-      <c r="G12" s="27" t="s">
+      <c r="C12" s="29"/>
+      <c r="D12" s="29"/>
+      <c r="E12" s="30"/>
+      <c r="F12" s="29"/>
+      <c r="G12" s="25" t="s">
         <v>66</v>
       </c>
-      <c r="H12" s="31"/>
-      <c r="I12" s="32"/>
-      <c r="J12" s="26"/>
-      <c r="K12" s="26"/>
-      <c r="L12" s="26"/>
-      <c r="M12" s="28" t="s">
+      <c r="H12" s="29"/>
+      <c r="I12" s="30"/>
+      <c r="J12" s="24"/>
+      <c r="K12" s="24"/>
+      <c r="L12" s="24"/>
+      <c r="M12" s="26" t="s">
         <v>59</v>
       </c>
-      <c r="N12" s="29"/>
-      <c r="O12" s="30" t="s">
+      <c r="N12" s="27"/>
+      <c r="O12" s="28" t="s">
         <v>60</v>
       </c>
-      <c r="P12" s="28" t="s">
+      <c r="P12" s="26" t="s">
         <v>63</v>
       </c>
-      <c r="Q12" s="28" t="s">
+      <c r="Q12" s="26" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="13" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B13" s="24">
+      <c r="B13" s="22">
         <v>9</v>
       </c>
-      <c r="C13" s="31"/>
-      <c r="D13" s="31"/>
-      <c r="E13" s="32"/>
-      <c r="F13" s="31"/>
-      <c r="G13" s="27" t="s">
+      <c r="C13" s="29"/>
+      <c r="D13" s="29"/>
+      <c r="E13" s="30"/>
+      <c r="F13" s="29"/>
+      <c r="G13" s="25" t="s">
         <v>66</v>
       </c>
-      <c r="H13" s="31"/>
-      <c r="I13" s="32"/>
-      <c r="J13" s="26"/>
-      <c r="K13" s="26"/>
-      <c r="L13" s="26"/>
-      <c r="M13" s="28" t="s">
+      <c r="H13" s="29"/>
+      <c r="I13" s="30"/>
+      <c r="J13" s="24"/>
+      <c r="K13" s="24"/>
+      <c r="L13" s="24"/>
+      <c r="M13" s="26" t="s">
         <v>59</v>
       </c>
-      <c r="N13" s="29"/>
-      <c r="O13" s="30" t="s">
+      <c r="N13" s="27"/>
+      <c r="O13" s="28" t="s">
         <v>60</v>
       </c>
-      <c r="P13" s="28" t="s">
+      <c r="P13" s="26" t="s">
         <v>63</v>
       </c>
-      <c r="Q13" s="28" t="s">
+      <c r="Q13" s="26" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="14" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B14" s="24">
+      <c r="B14" s="22">
         <v>10</v>
       </c>
-      <c r="C14" s="31"/>
-      <c r="D14" s="31"/>
-      <c r="E14" s="32"/>
-      <c r="F14" s="31"/>
-      <c r="G14" s="27" t="s">
+      <c r="C14" s="29"/>
+      <c r="D14" s="29"/>
+      <c r="E14" s="30"/>
+      <c r="F14" s="29"/>
+      <c r="G14" s="25" t="s">
         <v>66</v>
       </c>
-      <c r="H14" s="31"/>
-      <c r="I14" s="32"/>
-      <c r="J14" s="26"/>
-      <c r="K14" s="26"/>
-      <c r="L14" s="26"/>
-      <c r="M14" s="28" t="s">
+      <c r="H14" s="29"/>
+      <c r="I14" s="30"/>
+      <c r="J14" s="24"/>
+      <c r="K14" s="24"/>
+      <c r="L14" s="24"/>
+      <c r="M14" s="26" t="s">
         <v>59</v>
       </c>
-      <c r="N14" s="29"/>
-      <c r="O14" s="30" t="s">
+      <c r="N14" s="27"/>
+      <c r="O14" s="28" t="s">
         <v>60</v>
       </c>
-      <c r="P14" s="28" t="s">
+      <c r="P14" s="26" t="s">
         <v>63</v>
       </c>
-      <c r="Q14" s="28" t="s">
+      <c r="Q14" s="26" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="15" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B15" s="24">
+      <c r="B15" s="22">
         <v>11</v>
       </c>
-      <c r="C15" s="31"/>
-      <c r="D15" s="31"/>
-      <c r="E15" s="32"/>
-      <c r="F15" s="31"/>
-      <c r="G15" s="27" t="s">
+      <c r="C15" s="29"/>
+      <c r="D15" s="29"/>
+      <c r="E15" s="30"/>
+      <c r="F15" s="29"/>
+      <c r="G15" s="25" t="s">
         <v>66</v>
       </c>
-      <c r="H15" s="31"/>
-      <c r="I15" s="32"/>
-      <c r="J15" s="26"/>
-      <c r="K15" s="26"/>
-      <c r="L15" s="26"/>
-      <c r="M15" s="28" t="s">
+      <c r="H15" s="29"/>
+      <c r="I15" s="30"/>
+      <c r="J15" s="24"/>
+      <c r="K15" s="24"/>
+      <c r="L15" s="24"/>
+      <c r="M15" s="26" t="s">
         <v>59</v>
       </c>
-      <c r="N15" s="29"/>
-      <c r="O15" s="30" t="s">
+      <c r="N15" s="27"/>
+      <c r="O15" s="28" t="s">
         <v>60</v>
       </c>
-      <c r="P15" s="28" t="s">
+      <c r="P15" s="26" t="s">
         <v>63</v>
       </c>
-      <c r="Q15" s="28" t="s">
+      <c r="Q15" s="26" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="16" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B16" s="24">
+      <c r="B16" s="22">
         <v>12</v>
       </c>
-      <c r="C16" s="31"/>
-      <c r="D16" s="31"/>
-      <c r="E16" s="32"/>
-      <c r="F16" s="31"/>
-      <c r="G16" s="27" t="s">
+      <c r="C16" s="29"/>
+      <c r="D16" s="29"/>
+      <c r="E16" s="30"/>
+      <c r="F16" s="29"/>
+      <c r="G16" s="25" t="s">
         <v>66</v>
       </c>
-      <c r="H16" s="31"/>
-      <c r="I16" s="32"/>
-      <c r="J16" s="26"/>
-      <c r="K16" s="26"/>
-      <c r="L16" s="26"/>
-      <c r="M16" s="28" t="s">
+      <c r="H16" s="29"/>
+      <c r="I16" s="30"/>
+      <c r="J16" s="24"/>
+      <c r="K16" s="24"/>
+      <c r="L16" s="24"/>
+      <c r="M16" s="26" t="s">
         <v>59</v>
       </c>
-      <c r="N16" s="29"/>
-      <c r="O16" s="30" t="s">
+      <c r="N16" s="27"/>
+      <c r="O16" s="28" t="s">
         <v>60</v>
       </c>
-      <c r="P16" s="28" t="s">
+      <c r="P16" s="26" t="s">
         <v>63</v>
       </c>
-      <c r="Q16" s="28" t="s">
+      <c r="Q16" s="26" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="17" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B17" s="24">
+      <c r="B17" s="22">
         <v>13</v>
       </c>
-      <c r="C17" s="31"/>
-      <c r="D17" s="31"/>
-      <c r="E17" s="32"/>
-      <c r="F17" s="31"/>
-      <c r="G17" s="27" t="s">
+      <c r="C17" s="29"/>
+      <c r="D17" s="29"/>
+      <c r="E17" s="30"/>
+      <c r="F17" s="29"/>
+      <c r="G17" s="25" t="s">
         <v>66</v>
       </c>
-      <c r="H17" s="31"/>
-      <c r="I17" s="32"/>
-      <c r="J17" s="26"/>
-      <c r="K17" s="26"/>
-      <c r="L17" s="26"/>
-      <c r="M17" s="28" t="s">
+      <c r="H17" s="29"/>
+      <c r="I17" s="30"/>
+      <c r="J17" s="24"/>
+      <c r="K17" s="24"/>
+      <c r="L17" s="24"/>
+      <c r="M17" s="26" t="s">
         <v>59</v>
       </c>
-      <c r="N17" s="29"/>
-      <c r="O17" s="30" t="s">
+      <c r="N17" s="27"/>
+      <c r="O17" s="28" t="s">
         <v>60</v>
       </c>
-      <c r="P17" s="28" t="s">
+      <c r="P17" s="26" t="s">
         <v>63</v>
       </c>
-      <c r="Q17" s="28" t="s">
+      <c r="Q17" s="26" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="18" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B18" s="24">
+      <c r="B18" s="22">
         <v>14</v>
       </c>
-      <c r="C18" s="31"/>
-      <c r="D18" s="31"/>
-      <c r="E18" s="32"/>
-      <c r="F18" s="31"/>
-      <c r="G18" s="27" t="s">
+      <c r="C18" s="29"/>
+      <c r="D18" s="29"/>
+      <c r="E18" s="30"/>
+      <c r="F18" s="29"/>
+      <c r="G18" s="25" t="s">
         <v>66</v>
       </c>
-      <c r="H18" s="31"/>
-      <c r="I18" s="32"/>
-      <c r="J18" s="26"/>
-      <c r="K18" s="26"/>
-      <c r="L18" s="26"/>
-      <c r="M18" s="28" t="s">
+      <c r="H18" s="29"/>
+      <c r="I18" s="30"/>
+      <c r="J18" s="24"/>
+      <c r="K18" s="24"/>
+      <c r="L18" s="24"/>
+      <c r="M18" s="26" t="s">
         <v>59</v>
       </c>
-      <c r="N18" s="29"/>
-      <c r="O18" s="30" t="s">
+      <c r="N18" s="27"/>
+      <c r="O18" s="28" t="s">
         <v>60</v>
       </c>
-      <c r="P18" s="28" t="s">
+      <c r="P18" s="26" t="s">
         <v>63</v>
       </c>
-      <c r="Q18" s="28" t="s">
+      <c r="Q18" s="26" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="19" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B19" s="24">
+      <c r="B19" s="22">
         <v>15</v>
       </c>
-      <c r="C19" s="31"/>
-      <c r="D19" s="31"/>
-      <c r="E19" s="32"/>
-      <c r="F19" s="31"/>
-      <c r="G19" s="27" t="s">
+      <c r="C19" s="29"/>
+      <c r="D19" s="29"/>
+      <c r="E19" s="30"/>
+      <c r="F19" s="29"/>
+      <c r="G19" s="25" t="s">
         <v>66</v>
       </c>
-      <c r="H19" s="31"/>
-      <c r="I19" s="32"/>
-      <c r="J19" s="26"/>
-      <c r="K19" s="26"/>
-      <c r="L19" s="26"/>
-      <c r="M19" s="28" t="s">
+      <c r="H19" s="29"/>
+      <c r="I19" s="30"/>
+      <c r="J19" s="24"/>
+      <c r="K19" s="24"/>
+      <c r="L19" s="24"/>
+      <c r="M19" s="26" t="s">
         <v>59</v>
       </c>
-      <c r="N19" s="29"/>
-      <c r="O19" s="30" t="s">
+      <c r="N19" s="27"/>
+      <c r="O19" s="28" t="s">
         <v>60</v>
       </c>
-      <c r="P19" s="28" t="s">
+      <c r="P19" s="26" t="s">
         <v>63</v>
       </c>
-      <c r="Q19" s="28" t="s">
+      <c r="Q19" s="26" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="20" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B20" s="24">
+      <c r="B20" s="22">
         <v>16</v>
       </c>
-      <c r="C20" s="31"/>
-      <c r="D20" s="31"/>
-      <c r="E20" s="32"/>
-      <c r="F20" s="31"/>
-      <c r="G20" s="27" t="s">
+      <c r="C20" s="29"/>
+      <c r="D20" s="29"/>
+      <c r="E20" s="30"/>
+      <c r="F20" s="29"/>
+      <c r="G20" s="25" t="s">
         <v>66</v>
       </c>
-      <c r="H20" s="31"/>
-      <c r="I20" s="32"/>
-      <c r="J20" s="26"/>
-      <c r="K20" s="26"/>
-      <c r="L20" s="26"/>
-      <c r="M20" s="28" t="s">
+      <c r="H20" s="29"/>
+      <c r="I20" s="30"/>
+      <c r="J20" s="24"/>
+      <c r="K20" s="24"/>
+      <c r="L20" s="24"/>
+      <c r="M20" s="26" t="s">
         <v>59</v>
       </c>
-      <c r="N20" s="29"/>
-      <c r="O20" s="30" t="s">
+      <c r="N20" s="27"/>
+      <c r="O20" s="28" t="s">
         <v>60</v>
       </c>
-      <c r="P20" s="28" t="s">
+      <c r="P20" s="26" t="s">
         <v>63</v>
       </c>
-      <c r="Q20" s="28" t="s">
+      <c r="Q20" s="26" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="21" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B21" s="24">
+      <c r="B21" s="22">
         <v>17</v>
       </c>
-      <c r="C21" s="31"/>
-      <c r="D21" s="31"/>
-      <c r="E21" s="32"/>
-      <c r="F21" s="31"/>
-      <c r="G21" s="27" t="s">
+      <c r="C21" s="29"/>
+      <c r="D21" s="29"/>
+      <c r="E21" s="30"/>
+      <c r="F21" s="29"/>
+      <c r="G21" s="25" t="s">
         <v>66</v>
       </c>
-      <c r="H21" s="31"/>
-      <c r="I21" s="32"/>
-      <c r="J21" s="26"/>
-      <c r="K21" s="26"/>
-      <c r="L21" s="26"/>
-      <c r="M21" s="28" t="s">
+      <c r="H21" s="29"/>
+      <c r="I21" s="30"/>
+      <c r="J21" s="24"/>
+      <c r="K21" s="24"/>
+      <c r="L21" s="24"/>
+      <c r="M21" s="26" t="s">
         <v>59</v>
       </c>
-      <c r="N21" s="29"/>
-      <c r="O21" s="30" t="s">
+      <c r="N21" s="27"/>
+      <c r="O21" s="28" t="s">
         <v>60</v>
       </c>
-      <c r="P21" s="28" t="s">
+      <c r="P21" s="26" t="s">
         <v>63</v>
       </c>
-      <c r="Q21" s="28" t="s">
+      <c r="Q21" s="26" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="22" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B22" s="24">
+      <c r="B22" s="22">
         <v>18</v>
       </c>
-      <c r="C22" s="31"/>
-      <c r="D22" s="31"/>
-      <c r="E22" s="32"/>
-      <c r="F22" s="31"/>
-      <c r="G22" s="27" t="s">
+      <c r="C22" s="29"/>
+      <c r="D22" s="29"/>
+      <c r="E22" s="30"/>
+      <c r="F22" s="29"/>
+      <c r="G22" s="25" t="s">
         <v>66</v>
       </c>
-      <c r="H22" s="31"/>
-      <c r="I22" s="32"/>
-      <c r="J22" s="26"/>
-      <c r="K22" s="26"/>
-      <c r="L22" s="26"/>
-      <c r="M22" s="28" t="s">
+      <c r="H22" s="29"/>
+      <c r="I22" s="30"/>
+      <c r="J22" s="24"/>
+      <c r="K22" s="24"/>
+      <c r="L22" s="24"/>
+      <c r="M22" s="26" t="s">
         <v>59</v>
       </c>
-      <c r="N22" s="29"/>
-      <c r="O22" s="30" t="s">
+      <c r="N22" s="27"/>
+      <c r="O22" s="28" t="s">
         <v>60</v>
       </c>
-      <c r="P22" s="28" t="s">
+      <c r="P22" s="26" t="s">
         <v>63</v>
       </c>
-      <c r="Q22" s="28" t="s">
+      <c r="Q22" s="26" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="23" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B23" s="24">
+      <c r="B23" s="22">
         <v>19</v>
       </c>
-      <c r="C23" s="31"/>
-      <c r="D23" s="31"/>
-      <c r="E23" s="32"/>
-      <c r="F23" s="31"/>
-      <c r="G23" s="27" t="s">
+      <c r="C23" s="29"/>
+      <c r="D23" s="29"/>
+      <c r="E23" s="30"/>
+      <c r="F23" s="29"/>
+      <c r="G23" s="25" t="s">
         <v>66</v>
       </c>
-      <c r="H23" s="31"/>
-      <c r="I23" s="32"/>
-      <c r="J23" s="26"/>
-      <c r="K23" s="26"/>
-      <c r="L23" s="26"/>
-      <c r="M23" s="28" t="s">
+      <c r="H23" s="29"/>
+      <c r="I23" s="30"/>
+      <c r="J23" s="24"/>
+      <c r="K23" s="24"/>
+      <c r="L23" s="24"/>
+      <c r="M23" s="26" t="s">
         <v>59</v>
       </c>
-      <c r="N23" s="29"/>
-      <c r="O23" s="30" t="s">
+      <c r="N23" s="27"/>
+      <c r="O23" s="28" t="s">
         <v>60</v>
       </c>
-      <c r="P23" s="28" t="s">
+      <c r="P23" s="26" t="s">
         <v>63</v>
       </c>
-      <c r="Q23" s="28" t="s">
+      <c r="Q23" s="26" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="24" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B24" s="24">
+      <c r="B24" s="22">
         <v>20</v>
       </c>
-      <c r="C24" s="31"/>
-      <c r="D24" s="31"/>
-      <c r="E24" s="32"/>
-      <c r="F24" s="31"/>
-      <c r="G24" s="27" t="s">
+      <c r="C24" s="29"/>
+      <c r="D24" s="29"/>
+      <c r="E24" s="30"/>
+      <c r="F24" s="29"/>
+      <c r="G24" s="25" t="s">
         <v>66</v>
       </c>
-      <c r="H24" s="31"/>
-      <c r="I24" s="32"/>
-      <c r="J24" s="26"/>
-      <c r="K24" s="26"/>
-      <c r="L24" s="26"/>
-      <c r="M24" s="28" t="s">
+      <c r="H24" s="29"/>
+      <c r="I24" s="30"/>
+      <c r="J24" s="24"/>
+      <c r="K24" s="24"/>
+      <c r="L24" s="24"/>
+      <c r="M24" s="26" t="s">
         <v>59</v>
       </c>
-      <c r="N24" s="29"/>
-      <c r="O24" s="30" t="s">
+      <c r="N24" s="27"/>
+      <c r="O24" s="28" t="s">
         <v>60</v>
       </c>
-      <c r="P24" s="28" t="s">
+      <c r="P24" s="26" t="s">
         <v>63</v>
       </c>
-      <c r="Q24" s="28" t="s">
+      <c r="Q24" s="26" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="25" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B25" s="24">
+      <c r="B25" s="22">
         <v>21</v>
       </c>
-      <c r="C25" s="31"/>
-      <c r="D25" s="31"/>
-      <c r="E25" s="32"/>
-      <c r="F25" s="31"/>
-      <c r="G25" s="27" t="s">
+      <c r="C25" s="29"/>
+      <c r="D25" s="29"/>
+      <c r="E25" s="30"/>
+      <c r="F25" s="29"/>
+      <c r="G25" s="25" t="s">
         <v>66</v>
       </c>
-      <c r="H25" s="31"/>
-      <c r="I25" s="32"/>
-      <c r="J25" s="26"/>
-      <c r="K25" s="26"/>
-      <c r="L25" s="26"/>
-      <c r="M25" s="28" t="s">
+      <c r="H25" s="29"/>
+      <c r="I25" s="30"/>
+      <c r="J25" s="24"/>
+      <c r="K25" s="24"/>
+      <c r="L25" s="24"/>
+      <c r="M25" s="26" t="s">
         <v>59</v>
       </c>
-      <c r="N25" s="29"/>
-      <c r="O25" s="30" t="s">
+      <c r="N25" s="27"/>
+      <c r="O25" s="28" t="s">
         <v>60</v>
       </c>
-      <c r="P25" s="28" t="s">
+      <c r="P25" s="26" t="s">
         <v>63</v>
       </c>
-      <c r="Q25" s="28" t="s">
+      <c r="Q25" s="26" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="26" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B26" s="24">
+      <c r="B26" s="22">
         <v>22</v>
       </c>
-      <c r="C26" s="31"/>
-      <c r="D26" s="31"/>
-      <c r="E26" s="32"/>
-      <c r="F26" s="31"/>
-      <c r="G26" s="27" t="s">
+      <c r="C26" s="29"/>
+      <c r="D26" s="29"/>
+      <c r="E26" s="30"/>
+      <c r="F26" s="29"/>
+      <c r="G26" s="25" t="s">
         <v>66</v>
       </c>
-      <c r="H26" s="31"/>
-      <c r="I26" s="32"/>
-      <c r="J26" s="26"/>
-      <c r="K26" s="26"/>
-      <c r="L26" s="26"/>
-      <c r="M26" s="28" t="s">
+      <c r="H26" s="29"/>
+      <c r="I26" s="30"/>
+      <c r="J26" s="24"/>
+      <c r="K26" s="24"/>
+      <c r="L26" s="24"/>
+      <c r="M26" s="26" t="s">
         <v>59</v>
       </c>
-      <c r="N26" s="29"/>
-      <c r="O26" s="30" t="s">
+      <c r="N26" s="27"/>
+      <c r="O26" s="28" t="s">
         <v>60</v>
       </c>
-      <c r="P26" s="28" t="s">
+      <c r="P26" s="26" t="s">
         <v>63</v>
       </c>
-      <c r="Q26" s="28" t="s">
+      <c r="Q26" s="26" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="27" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B27" s="24">
+      <c r="B27" s="22">
         <v>23</v>
       </c>
-      <c r="C27" s="31"/>
-      <c r="D27" s="31"/>
-      <c r="E27" s="32"/>
-      <c r="F27" s="31"/>
-      <c r="G27" s="27" t="s">
+      <c r="C27" s="29"/>
+      <c r="D27" s="29"/>
+      <c r="E27" s="30"/>
+      <c r="F27" s="29"/>
+      <c r="G27" s="25" t="s">
         <v>66</v>
       </c>
-      <c r="H27" s="31"/>
-      <c r="I27" s="32"/>
-      <c r="J27" s="26"/>
-      <c r="K27" s="26"/>
-      <c r="L27" s="26"/>
-      <c r="M27" s="28" t="s">
+      <c r="H27" s="29"/>
+      <c r="I27" s="30"/>
+      <c r="J27" s="24"/>
+      <c r="K27" s="24"/>
+      <c r="L27" s="24"/>
+      <c r="M27" s="26" t="s">
         <v>59</v>
       </c>
-      <c r="N27" s="29"/>
-      <c r="O27" s="30" t="s">
+      <c r="N27" s="27"/>
+      <c r="O27" s="28" t="s">
         <v>60</v>
       </c>
-      <c r="P27" s="28" t="s">
+      <c r="P27" s="26" t="s">
         <v>63</v>
       </c>
-      <c r="Q27" s="28" t="s">
+      <c r="Q27" s="26" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="28" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B28" s="24">
+      <c r="B28" s="22">
         <v>24</v>
       </c>
-      <c r="C28" s="37" t="s">
+      <c r="C28" s="33" t="s">
         <v>49</v>
       </c>
-      <c r="D28" s="37" t="s">
+      <c r="D28" s="33" t="s">
         <v>50</v>
       </c>
-      <c r="E28" s="38" t="s">
+      <c r="E28" s="34" t="s">
         <v>61</v>
       </c>
-      <c r="F28" s="37" t="s">
+      <c r="F28" s="33" t="s">
         <v>65</v>
       </c>
-      <c r="G28" s="39" t="s">
+      <c r="G28" s="35" t="s">
         <v>68</v>
       </c>
-      <c r="H28" s="37" t="s">
+      <c r="H28" s="33" t="s">
         <v>69</v>
       </c>
-      <c r="I28" s="32"/>
-      <c r="J28" s="26" t="s">
+      <c r="I28" s="30"/>
+      <c r="J28" s="24" t="s">
         <v>67</v>
       </c>
-      <c r="K28" s="26" t="s">
+      <c r="K28" s="24" t="s">
         <v>57</v>
       </c>
-      <c r="L28" s="26" t="s">
+      <c r="L28" s="24" t="s">
         <v>58</v>
       </c>
-      <c r="M28" s="28">
+      <c r="M28" s="26">
         <v>7500</v>
       </c>
-      <c r="N28" s="29">
+      <c r="N28" s="27">
         <f>P28/(1-0.45)</f>
         <v>5032.7272727272721</v>
       </c>
-      <c r="O28" s="30">
+      <c r="O28" s="28">
         <v>8030</v>
       </c>
-      <c r="P28" s="28">
+      <c r="P28" s="26">
         <v>2768</v>
       </c>
-      <c r="Q28" s="28">
+      <c r="Q28" s="26">
         <v>2856</v>
       </c>
     </row>
     <row r="29" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B29" s="24">
+      <c r="B29" s="22">
         <v>25</v>
       </c>
-      <c r="C29" s="37" t="s">
+      <c r="C29" s="33" t="s">
         <v>49</v>
       </c>
-      <c r="D29" s="37" t="s">
+      <c r="D29" s="33" t="s">
         <v>50</v>
       </c>
-      <c r="E29" s="38" t="s">
+      <c r="E29" s="34" t="s">
         <v>61</v>
       </c>
-      <c r="F29" s="37" t="s">
+      <c r="F29" s="33" t="s">
         <v>70</v>
       </c>
-      <c r="G29" s="39" t="s">
+      <c r="G29" s="35" t="s">
         <v>68</v>
       </c>
-      <c r="H29" s="37" t="s">
+      <c r="H29" s="33" t="s">
         <v>71</v>
       </c>
-      <c r="I29" s="32"/>
-      <c r="J29" s="26" t="s">
+      <c r="I29" s="30"/>
+      <c r="J29" s="24" t="s">
         <v>72</v>
       </c>
-      <c r="K29" s="26" t="s">
+      <c r="K29" s="24" t="s">
         <v>57</v>
       </c>
-      <c r="L29" s="26" t="s">
+      <c r="L29" s="24" t="s">
         <v>58</v>
       </c>
-      <c r="M29" s="28">
+      <c r="M29" s="26">
         <v>5513</v>
       </c>
-      <c r="N29" s="29">
+      <c r="N29" s="27">
         <f t="shared" ref="N29:N34" si="0">P29/(1-0.45)</f>
         <v>2427.272727272727</v>
       </c>
-      <c r="O29" s="30">
+      <c r="O29" s="28">
         <v>3520</v>
       </c>
-      <c r="P29" s="28">
+      <c r="P29" s="26">
         <v>1335</v>
       </c>
-      <c r="Q29" s="28">
+      <c r="Q29" s="26">
         <v>1378</v>
       </c>
     </row>
     <row r="30" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B30" s="24">
+      <c r="B30" s="22">
         <v>26</v>
       </c>
-      <c r="C30" s="37" t="s">
+      <c r="C30" s="33" t="s">
         <v>49</v>
       </c>
-      <c r="D30" s="37" t="s">
+      <c r="D30" s="33" t="s">
         <v>50</v>
       </c>
-      <c r="E30" s="38" t="s">
+      <c r="E30" s="34" t="s">
         <v>61</v>
       </c>
-      <c r="F30" s="37" t="s">
+      <c r="F30" s="33" t="s">
         <v>73</v>
       </c>
-      <c r="G30" s="39" t="s">
+      <c r="G30" s="35" t="s">
         <v>68</v>
       </c>
-      <c r="H30" s="37" t="s">
+      <c r="H30" s="33" t="s">
         <v>74</v>
       </c>
-      <c r="I30" s="34"/>
-      <c r="J30" s="26" t="s">
+      <c r="I30" s="32"/>
+      <c r="J30" s="24" t="s">
         <v>75</v>
       </c>
-      <c r="K30" s="26" t="s">
+      <c r="K30" s="24" t="s">
         <v>57</v>
       </c>
-      <c r="L30" s="26" t="s">
+      <c r="L30" s="24" t="s">
         <v>58</v>
       </c>
-      <c r="M30" s="28">
+      <c r="M30" s="26">
         <v>4763</v>
       </c>
-      <c r="N30" s="29">
+      <c r="N30" s="27">
         <f t="shared" si="0"/>
         <v>2114.5454545454545</v>
       </c>
-      <c r="O30" s="30">
+      <c r="O30" s="28">
         <v>2640</v>
       </c>
-      <c r="P30" s="28">
+      <c r="P30" s="26">
         <v>1163</v>
       </c>
-      <c r="Q30" s="28">
+      <c r="Q30" s="26">
         <v>1200</v>
       </c>
     </row>
     <row r="31" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B31" s="24">
+      <c r="B31" s="22">
         <v>27</v>
       </c>
-      <c r="C31" s="37" t="s">
+      <c r="C31" s="33" t="s">
         <v>49</v>
       </c>
-      <c r="D31" s="37" t="s">
+      <c r="D31" s="33" t="s">
         <v>50</v>
       </c>
-      <c r="E31" s="38" t="s">
+      <c r="E31" s="34" t="s">
         <v>61</v>
       </c>
-      <c r="F31" s="37" t="s">
+      <c r="F31" s="33" t="s">
         <v>76</v>
       </c>
-      <c r="G31" s="39" t="s">
+      <c r="G31" s="35" t="s">
         <v>68</v>
       </c>
-      <c r="H31" s="37" t="s">
+      <c r="H31" s="33" t="s">
         <v>77</v>
       </c>
-      <c r="I31" s="34"/>
-      <c r="J31" s="26" t="s">
+      <c r="I31" s="32"/>
+      <c r="J31" s="24" t="s">
         <v>78</v>
       </c>
-      <c r="K31" s="26" t="s">
+      <c r="K31" s="24" t="s">
         <v>57</v>
       </c>
-      <c r="L31" s="26" t="s">
+      <c r="L31" s="24" t="s">
         <v>58</v>
       </c>
-      <c r="M31" s="28">
+      <c r="M31" s="26">
         <v>4388</v>
       </c>
-      <c r="N31" s="29">
+      <c r="N31" s="27">
         <f t="shared" si="0"/>
         <v>1609.090909090909</v>
       </c>
-      <c r="O31" s="30">
+      <c r="O31" s="28">
         <v>1980</v>
       </c>
-      <c r="P31" s="28">
+      <c r="P31" s="26">
         <v>885</v>
       </c>
-      <c r="Q31" s="28">
+      <c r="Q31" s="26">
         <v>913</v>
       </c>
     </row>
     <row r="32" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B32" s="24">
+      <c r="B32" s="22">
         <v>28</v>
       </c>
-      <c r="C32" s="37" t="s">
+      <c r="C32" s="33" t="s">
         <v>49</v>
       </c>
-      <c r="D32" s="37" t="s">
+      <c r="D32" s="33" t="s">
         <v>50</v>
       </c>
-      <c r="E32" s="38" t="s">
+      <c r="E32" s="34" t="s">
         <v>61</v>
       </c>
-      <c r="F32" s="37" t="s">
+      <c r="F32" s="33" t="s">
         <v>52</v>
       </c>
-      <c r="G32" s="39" t="s">
+      <c r="G32" s="35" t="s">
         <v>68</v>
       </c>
-      <c r="H32" s="37" t="s">
+      <c r="H32" s="33" t="s">
         <v>79</v>
       </c>
-      <c r="I32" s="34"/>
-      <c r="J32" s="26" t="s">
+      <c r="I32" s="32"/>
+      <c r="J32" s="24" t="s">
         <v>56</v>
       </c>
-      <c r="K32" s="26" t="s">
+      <c r="K32" s="24" t="s">
         <v>57</v>
       </c>
-      <c r="L32" s="26" t="s">
+      <c r="L32" s="24" t="s">
         <v>58</v>
       </c>
-      <c r="M32" s="28">
+      <c r="M32" s="26">
         <v>3638</v>
       </c>
-      <c r="N32" s="29">
+      <c r="N32" s="27">
         <f t="shared" si="0"/>
         <v>1241.8181818181818</v>
       </c>
-      <c r="O32" s="30">
+      <c r="O32" s="28">
         <v>1485</v>
       </c>
-      <c r="P32" s="28">
+      <c r="P32" s="26">
         <v>683</v>
       </c>
-      <c r="Q32" s="28">
+      <c r="Q32" s="26">
         <v>704</v>
       </c>
     </row>
     <row r="33" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B33" s="24">
+      <c r="B33" s="22">
         <v>29</v>
       </c>
-      <c r="C33" s="37" t="s">
+      <c r="C33" s="33" t="s">
         <v>49</v>
       </c>
-      <c r="D33" s="37" t="s">
+      <c r="D33" s="33" t="s">
         <v>50</v>
       </c>
-      <c r="E33" s="38" t="s">
+      <c r="E33" s="34" t="s">
         <v>61</v>
       </c>
-      <c r="F33" s="37" t="s">
+      <c r="F33" s="33" t="s">
         <v>80</v>
       </c>
-      <c r="G33" s="39" t="s">
+      <c r="G33" s="35" t="s">
         <v>68</v>
       </c>
-      <c r="H33" s="37" t="s">
+      <c r="H33" s="33" t="s">
         <v>81</v>
       </c>
-      <c r="I33" s="34"/>
-      <c r="J33" s="26" t="s">
+      <c r="I33" s="32"/>
+      <c r="J33" s="24" t="s">
         <v>82</v>
       </c>
-      <c r="K33" s="26" t="s">
+      <c r="K33" s="24" t="s">
         <v>57</v>
       </c>
-      <c r="L33" s="26" t="s">
+      <c r="L33" s="24" t="s">
         <v>58</v>
       </c>
-      <c r="M33" s="28">
+      <c r="M33" s="26">
         <v>2775</v>
       </c>
-      <c r="N33" s="29">
+      <c r="N33" s="27">
         <f t="shared" si="0"/>
         <v>927.27272727272725</v>
       </c>
-      <c r="O33" s="30">
+      <c r="O33" s="28">
         <v>1128</v>
       </c>
-      <c r="P33" s="28">
+      <c r="P33" s="26">
         <v>510</v>
       </c>
-      <c r="Q33" s="28">
+      <c r="Q33" s="26">
         <v>526</v>
       </c>
     </row>
     <row r="34" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B34" s="24">
+      <c r="B34" s="22">
         <v>30</v>
       </c>
-      <c r="C34" s="37" t="s">
+      <c r="C34" s="33" t="s">
         <v>49</v>
       </c>
-      <c r="D34" s="37" t="s">
+      <c r="D34" s="33" t="s">
         <v>50</v>
       </c>
-      <c r="E34" s="38" t="s">
+      <c r="E34" s="34" t="s">
         <v>61</v>
       </c>
-      <c r="F34" s="37" t="s">
+      <c r="F34" s="33" t="s">
         <v>83</v>
       </c>
-      <c r="G34" s="39" t="s">
+      <c r="G34" s="35" t="s">
         <v>68</v>
       </c>
-      <c r="H34" s="37" t="s">
+      <c r="H34" s="33" t="s">
         <v>84</v>
       </c>
-      <c r="I34" s="34"/>
-      <c r="J34" s="26" t="s">
+      <c r="I34" s="32"/>
+      <c r="J34" s="24" t="s">
         <v>85</v>
       </c>
-      <c r="K34" s="26" t="s">
+      <c r="K34" s="24" t="s">
         <v>57</v>
       </c>
-      <c r="L34" s="26" t="s">
+      <c r="L34" s="24" t="s">
         <v>58</v>
       </c>
-      <c r="M34" s="28">
+      <c r="M34" s="26">
         <v>2025</v>
       </c>
-      <c r="N34" s="29">
+      <c r="N34" s="27">
         <f t="shared" si="0"/>
         <v>899.99999999999989</v>
       </c>
-      <c r="O34" s="30">
+      <c r="O34" s="28">
         <v>1045</v>
       </c>
-      <c r="P34" s="28">
+      <c r="P34" s="26">
         <v>495</v>
       </c>
-      <c r="Q34" s="28">
+      <c r="Q34" s="26">
         <v>511</v>
       </c>
     </row>

--- a/00-CONSTANTS/lowcomplexity_const_KHv1.xlsx
+++ b/00-CONSTANTS/lowcomplexity_const_KHv1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11003"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11018"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/keharris/_K/_SCRIPTS/_DEV/dtt-pricing-tools-populator/00-CONSTANTS/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/keharris/_K/_CODE/DEV/dtt-pricing-tools-populator/00-CONSTANTS/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70021E05-9912-8644-9FF8-853BB6C28B01}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63238558-E23F-7542-9739-7FBEF6B7D405}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="880" windowWidth="36000" windowHeight="21460" xr2:uid="{7A059E25-DFCF-6342-8148-88951A9BA5D0}"/>
+    <workbookView xWindow="0" yWindow="820" windowWidth="36000" windowHeight="21460" xr2:uid="{7A059E25-DFCF-6342-8148-88951A9BA5D0}"/>
   </bookViews>
   <sheets>
     <sheet name="Pricing Setup" sheetId="1" r:id="rId1"/>
